--- a/坦克数据.xlsx
+++ b/坦克数据.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99600\Documents\Paradox Interactive\Hearts of Iron IV\mod\touhou114bate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59CE883-1D04-4949-8ED2-2B91C762C82E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454BFFA5-0E4E-4252-8910-14C804B6617F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="坦克" sheetId="1" r:id="rId1"/>
+    <sheet name="飞机" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="73">
   <si>
     <t>软攻</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -184,6 +185,136 @@
   </si>
   <si>
     <t>4钢1钨1铬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想33战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想44支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想44战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度(km)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：原版补给使用均为0.28，幻想补给使用降至0.25，我觉得应该没人能发现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版40战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版45战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想45战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想40战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想36战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版40支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版45支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想33支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想36支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想40支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想45支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版36战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>航程(km)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对地</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>瞄准</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轰炸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>探测(海/潜)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">燃油使用 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源花费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3铝1胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3铝2胶</t>
+  </si>
+  <si>
+    <t>3铝2胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4铝2胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版36支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3铝3胶</t>
+  </si>
+  <si>
+    <t>至臻45战(亏麻了)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -191,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +345,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,6 +379,16 @@
         <fgColor theme="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -242,7 +399,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -250,8 +407,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -268,9 +431,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
+    <cellStyle name="适中" xfId="4" builtinId="28"/>
     <cellStyle name="着色 1" xfId="1" builtinId="29"/>
     <cellStyle name="着色 6" xfId="2" builtinId="49"/>
   </cellStyles>
@@ -552,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M32" sqref="M31:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1861,4 +2032,2424 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8802DC47-9863-454C-BF17-0292EE4FC708}">
+  <dimension ref="A1:AU45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="13" width="9.625" customWidth="1"/>
+    <col min="14" max="14" width="16.5" customWidth="1"/>
+    <col min="15" max="25" width="9.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+    </row>
+    <row r="2" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+    </row>
+    <row r="3" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="7">
+        <v>687.5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>510</v>
+      </c>
+      <c r="D3" s="7">
+        <v>42.5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>20</v>
+      </c>
+      <c r="F3" s="7">
+        <v>9</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="M3" s="7">
+        <v>24</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+    </row>
+    <row r="4" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="7">
+        <v>910</v>
+      </c>
+      <c r="C4" s="7">
+        <v>585</v>
+      </c>
+      <c r="D4" s="7">
+        <v>45</v>
+      </c>
+      <c r="E4" s="7">
+        <v>54</v>
+      </c>
+      <c r="F4" s="7">
+        <v>19</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="M4" s="7">
+        <v>34</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1"/>
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1"/>
+      <c r="AU4" s="1"/>
+    </row>
+    <row r="5" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1350</v>
+      </c>
+      <c r="C5" s="7">
+        <v>725</v>
+      </c>
+      <c r="D5" s="7">
+        <v>54</v>
+      </c>
+      <c r="E5" s="7">
+        <v>78</v>
+      </c>
+      <c r="F5" s="7">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="M5" s="7">
+        <v>45</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="1"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+    </row>
+    <row r="6" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1710</v>
+      </c>
+      <c r="C6" s="7">
+        <v>725</v>
+      </c>
+      <c r="D6" s="7">
+        <v>55</v>
+      </c>
+      <c r="E6" s="7">
+        <v>96</v>
+      </c>
+      <c r="F6" s="7">
+        <v>24</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="M6" s="7">
+        <v>74</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+      <c r="AN6" s="1"/>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1"/>
+    </row>
+    <row r="7" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+    </row>
+    <row r="8" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="1"/>
+      <c r="AR8" s="1"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1"/>
+    </row>
+    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+    </row>
+    <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+    </row>
+    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="1"/>
+      <c r="AR11" s="1"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1"/>
+    </row>
+    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1100</v>
+      </c>
+      <c r="C12" s="7">
+        <v>510</v>
+      </c>
+      <c r="D12" s="7">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>5</v>
+      </c>
+      <c r="G12" s="7">
+        <v>12</v>
+      </c>
+      <c r="H12" s="7">
+        <v>5</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="M12" s="7">
+        <v>23</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="1"/>
+      <c r="AR12" s="1"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1"/>
+    </row>
+    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1625</v>
+      </c>
+      <c r="C13" s="7">
+        <v>585</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>31</v>
+      </c>
+      <c r="H13" s="7">
+        <v>7</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="M13" s="7">
+        <v>51</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="1"/>
+      <c r="AR13" s="1"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="1"/>
+    </row>
+    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2700</v>
+      </c>
+      <c r="C14" s="7">
+        <v>725</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>10</v>
+      </c>
+      <c r="G14" s="7">
+        <v>39</v>
+      </c>
+      <c r="H14" s="7">
+        <v>10</v>
+      </c>
+      <c r="I14" s="7">
+        <v>5</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="M14" s="7">
+        <v>61</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="1"/>
+      <c r="AR14" s="1"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="1"/>
+    </row>
+    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="1"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="1"/>
+    </row>
+    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="1"/>
+    </row>
+    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="1"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="1"/>
+    </row>
+    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="1"/>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="1"/>
+    </row>
+    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="1"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="1"/>
+    </row>
+    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="1"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="1"/>
+    </row>
+    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="1"/>
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+    </row>
+    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="1"/>
+      <c r="AR22" s="1"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1"/>
+    </row>
+    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1"/>
+      <c r="AO23" s="1"/>
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="1"/>
+      <c r="AR23" s="1"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1"/>
+    </row>
+    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+      <c r="AO24" s="1"/>
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="1"/>
+      <c r="AR24" s="1"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1"/>
+    </row>
+    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="1"/>
+      <c r="AR25" s="1"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+    </row>
+    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="1"/>
+      <c r="AR26" s="1"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+    </row>
+    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="1"/>
+      <c r="AR27" s="1"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+    </row>
+    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="1"/>
+      <c r="AR28" s="1"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+    </row>
+    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1"/>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="1"/>
+      <c r="AR29" s="1"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+    </row>
+    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1"/>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="1"/>
+      <c r="AR30" s="1"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+    </row>
+    <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="1"/>
+      <c r="AR31" s="1"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+    </row>
+    <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="1"/>
+      <c r="AR32" s="1"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+    </row>
+    <row r="33" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="1"/>
+      <c r="AR33" s="1"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
+    </row>
+    <row r="34" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
+      <c r="AM34" s="1"/>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="1"/>
+      <c r="AR34" s="1"/>
+      <c r="AS34" s="1"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+    </row>
+    <row r="35" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
+      <c r="AK35" s="1"/>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="1"/>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+    </row>
+    <row r="36" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+    </row>
+    <row r="37" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="1"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
+      <c r="AT37" s="1"/>
+      <c r="AU37" s="1"/>
+    </row>
+    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="1"/>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="1"/>
+      <c r="AK38" s="1"/>
+      <c r="AL38" s="1"/>
+      <c r="AM38" s="1"/>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1"/>
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="1"/>
+      <c r="AR38" s="1"/>
+      <c r="AS38" s="1"/>
+      <c r="AT38" s="1"/>
+      <c r="AU38" s="1"/>
+    </row>
+    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+    </row>
+    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+    </row>
+    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+    </row>
+    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+    </row>
+    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+    </row>
+    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+    </row>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1"/>
+      <c r="AM45" s="1"/>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="1"/>
+      <c r="AR45" s="1"/>
+      <c r="AS45" s="1"/>
+      <c r="AT45" s="1"/>
+      <c r="AU45" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
 </file>
--- a/坦克数据.xlsx
+++ b/坦克数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99600\Documents\Paradox Interactive\Hearts of Iron IV\mod\touhou114bate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454BFFA5-0E4E-4252-8910-14C804B6617F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202CC125-A130-4AA3-A9D1-A347BE9164A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3870" yWindow="4130" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="坦克" sheetId="1" r:id="rId1"/>
@@ -723,20 +723,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M32" sqref="M31:M32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="12" width="10.625" customWidth="1"/>
+    <col min="2" max="12" width="10.58203125" customWidth="1"/>
     <col min="13" max="13" width="13.5" customWidth="1"/>
-    <col min="14" max="23" width="10.625" customWidth="1"/>
-    <col min="24" max="26" width="9.625" customWidth="1"/>
+    <col min="14" max="23" width="10.58203125" customWidth="1"/>
+    <col min="24" max="26" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -775,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -816,7 +816,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="4" t="s">
         <v>6</v>
@@ -855,7 +855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -890,13 +890,13 @@
         <v>6</v>
       </c>
       <c r="L4" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -935,7 +935,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,7 +976,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>6</v>
@@ -1015,7 +1015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>6</v>
@@ -1095,7 +1095,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1136,7 +1136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="4" t="s">
         <v>6</v>
@@ -1175,7 +1175,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>24</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
         <v>6</v>
@@ -1255,7 +1255,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>6</v>
@@ -1335,7 +1335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
         <v>6</v>
@@ -1415,7 +1415,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="4" t="s">
         <v>6</v>
@@ -1495,7 +1495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
         <v>6</v>
@@ -1575,7 +1575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="4" t="s">
         <v>6</v>
@@ -1655,7 +1655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
         <v>6</v>
@@ -1735,7 +1735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="4" t="s">
         <v>6</v>
@@ -1817,7 +1817,7 @@
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
@@ -1860,7 +1860,7 @@
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
         <v>6</v>
@@ -1899,7 +1899,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="4" t="s">
         <v>6</v>
@@ -1979,7 +1979,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>45</v>
       </c>
       <c r="F32" s="5">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G32" s="5">
         <v>150</v>
@@ -2020,14 +2020,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="36" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="37" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="39" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2038,19 +2038,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8802DC47-9863-454C-BF17-0292EE4FC708}">
   <dimension ref="A1:AU45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="2" max="13" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="13" width="9.58203125" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
-    <col min="15" max="25" width="9.625" customWidth="1"/>
+    <col min="15" max="25" width="9.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="AT1" s="1"/>
       <c r="AU1" s="1"/>
     </row>
-    <row r="2" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
         <v>58</v>
@@ -2176,7 +2176,7 @@
       <c r="AT2" s="1"/>
       <c r="AU2" s="1"/>
     </row>
-    <row r="3" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>57</v>
       </c>
@@ -2243,7 +2243,7 @@
       <c r="AT3" s="1"/>
       <c r="AU3" s="1"/>
     </row>
-    <row r="4" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>46</v>
       </c>
@@ -2310,7 +2310,7 @@
       <c r="AT4" s="1"/>
       <c r="AU4" s="1"/>
     </row>
-    <row r="5" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>47</v>
       </c>
@@ -2377,7 +2377,7 @@
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
     </row>
-    <row r="6" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>72</v>
       </c>
@@ -2444,7 +2444,7 @@
       <c r="AT6" s="1"/>
       <c r="AU6" s="1"/>
     </row>
-    <row r="7" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
@@ -2495,7 +2495,7 @@
       <c r="AT7" s="1"/>
       <c r="AU7" s="1"/>
     </row>
-    <row r="8" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>50</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="AT8" s="1"/>
       <c r="AU8" s="1"/>
     </row>
-    <row r="9" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>49</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="AT9" s="1"/>
       <c r="AU9" s="1"/>
     </row>
-    <row r="10" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
@@ -2648,7 +2648,7 @@
       <c r="AT10" s="1"/>
       <c r="AU10" s="1"/>
     </row>
-    <row r="11" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>48</v>
       </c>
@@ -2699,7 +2699,7 @@
       <c r="AT11" s="1"/>
       <c r="AU11" s="1"/>
     </row>
-    <row r="12" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>70</v>
       </c>
@@ -2772,7 +2772,7 @@
       <c r="AT12" s="1"/>
       <c r="AU12" s="1"/>
     </row>
-    <row r="13" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>51</v>
       </c>
@@ -2845,7 +2845,7 @@
       <c r="AT13" s="1"/>
       <c r="AU13" s="1"/>
     </row>
-    <row r="14" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>52</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="AT14" s="1"/>
       <c r="AU14" s="1"/>
     </row>
-    <row r="15" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>53</v>
       </c>
@@ -2969,7 +2969,7 @@
       <c r="AT15" s="1"/>
       <c r="AU15" s="1"/>
     </row>
-    <row r="16" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>54</v>
       </c>
@@ -3020,7 +3020,7 @@
       <c r="AT16" s="1"/>
       <c r="AU16" s="1"/>
     </row>
-    <row r="17" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>55</v>
       </c>
@@ -3071,7 +3071,7 @@
       <c r="AT17" s="1"/>
       <c r="AU17" s="1"/>
     </row>
-    <row r="18" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>41</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="AT18" s="1"/>
       <c r="AU18" s="1"/>
     </row>
-    <row r="19" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="AT19" s="1"/>
       <c r="AU19" s="1"/>
     </row>
-    <row r="20" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3222,7 +3222,7 @@
       <c r="AT20" s="1"/>
       <c r="AU20" s="1"/>
     </row>
-    <row r="21" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -3271,7 +3271,7 @@
       <c r="AT21" s="1"/>
       <c r="AU21" s="1"/>
     </row>
-    <row r="22" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -3320,7 +3320,7 @@
       <c r="AT22" s="1"/>
       <c r="AU22" s="1"/>
     </row>
-    <row r="23" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -3369,7 +3369,7 @@
       <c r="AT23" s="1"/>
       <c r="AU23" s="1"/>
     </row>
-    <row r="24" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -3418,7 +3418,7 @@
       <c r="AT24" s="1"/>
       <c r="AU24" s="1"/>
     </row>
-    <row r="25" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -3467,7 +3467,7 @@
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
     </row>
-    <row r="26" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -3516,7 +3516,7 @@
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
     </row>
-    <row r="27" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -3565,7 +3565,7 @@
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
     </row>
-    <row r="28" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -3614,7 +3614,7 @@
       <c r="AT28" s="1"/>
       <c r="AU28" s="1"/>
     </row>
-    <row r="29" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -3663,7 +3663,7 @@
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
     </row>
-    <row r="30" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3712,7 +3712,7 @@
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
     </row>
-    <row r="31" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -3761,7 +3761,7 @@
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
     </row>
-    <row r="32" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -3810,7 +3810,7 @@
       <c r="AT32" s="1"/>
       <c r="AU32" s="1"/>
     </row>
-    <row r="33" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -3859,7 +3859,7 @@
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
     </row>
-    <row r="34" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -3908,7 +3908,7 @@
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
     </row>
-    <row r="35" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -3957,7 +3957,7 @@
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
     </row>
-    <row r="36" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -4006,7 +4006,7 @@
       <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
     </row>
-    <row r="37" spans="1:47" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -4055,7 +4055,7 @@
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -4104,7 +4104,7 @@
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -4153,7 +4153,7 @@
       <c r="AT39" s="1"/>
       <c r="AU39" s="1"/>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -4202,7 +4202,7 @@
       <c r="AT40" s="1"/>
       <c r="AU40" s="1"/>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -4251,7 +4251,7 @@
       <c r="AT41" s="1"/>
       <c r="AU41" s="1"/>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -4300,7 +4300,7 @@
       <c r="AT42" s="1"/>
       <c r="AU42" s="1"/>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -4349,7 +4349,7 @@
       <c r="AT43" s="1"/>
       <c r="AU43" s="1"/>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -4398,7 +4398,7 @@
       <c r="AT44" s="1"/>
       <c r="AU44" s="1"/>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>

--- a/坦克数据.xlsx
+++ b/坦克数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99600\Documents\Paradox Interactive\Hearts of Iron IV\mod\touhou114bate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{202CC125-A130-4AA3-A9D1-A347BE9164A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EEE927-6C07-4A12-A825-2AEF027A39BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="4130" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="4860" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="坦克" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="75">
   <si>
     <t>软攻</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -220,10 +220,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>幻想45战</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>幻想40战</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -315,6 +311,18 @@
   </si>
   <si>
     <t>至臻45战(亏麻了)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版36轰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想46战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬攻</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -723,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1506,7 +1514,7 @@
         <v>0.85</v>
       </c>
       <c r="D20" s="5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E20" s="5">
         <v>42</v>
@@ -1678,7 +1686,7 @@
         <v>180</v>
       </c>
       <c r="H24" s="5">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="I24" s="5">
         <v>0</v>
@@ -1852,7 +1860,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="5">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>36</v>
@@ -1875,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -1987,7 +1995,7 @@
         <v>0.9</v>
       </c>
       <c r="C32" s="4">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="D32" s="5">
         <v>12</v>
@@ -2014,7 +2022,7 @@
         <v>36</v>
       </c>
       <c r="L32" s="5">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>35</v>
@@ -2038,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8802DC47-9863-454C-BF17-0292EE4FC708}">
   <dimension ref="A1:AU45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2104,7 +2112,7 @@
     <row r="2" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>44</v>
@@ -2119,28 +2127,28 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -2178,7 +2186,7 @@
     </row>
     <row r="3" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="7">
         <v>687.5</v>
@@ -2207,7 +2215,7 @@
         <v>24</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -2274,7 +2282,7 @@
         <v>34</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2341,7 +2349,7 @@
         <v>45</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -2379,7 +2387,7 @@
     </row>
     <row r="6" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="7">
         <v>1710</v>
@@ -2408,7 +2416,7 @@
         <v>74</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -2448,11 +2456,21 @@
       <c r="A7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="6">
+        <v>800</v>
+      </c>
+      <c r="C7" s="6">
+        <v>480</v>
+      </c>
+      <c r="D7" s="6">
+        <v>45</v>
+      </c>
+      <c r="E7" s="6">
+        <v>24</v>
+      </c>
+      <c r="F7" s="6">
+        <v>10</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -2497,13 +2515,23 @@
     </row>
     <row r="8" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1000</v>
+      </c>
+      <c r="C8" s="6">
+        <v>575</v>
+      </c>
+      <c r="D8" s="6">
+        <v>48</v>
+      </c>
+      <c r="E8" s="6">
+        <v>48</v>
+      </c>
+      <c r="F8" s="6">
+        <v>18</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -2548,13 +2576,23 @@
     </row>
     <row r="9" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B9" s="6">
+        <v>1200</v>
+      </c>
+      <c r="C9" s="6">
+        <v>650</v>
+      </c>
+      <c r="D9" s="6">
+        <v>51</v>
+      </c>
+      <c r="E9" s="6">
+        <v>60</v>
+      </c>
+      <c r="F9" s="6">
+        <v>21</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -2601,11 +2639,21 @@
       <c r="A10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="6">
+        <v>1500</v>
+      </c>
+      <c r="C10" s="6">
+        <v>725</v>
+      </c>
+      <c r="D10" s="6">
+        <v>54</v>
+      </c>
+      <c r="E10" s="6">
+        <v>80</v>
+      </c>
+      <c r="F10" s="6">
+        <v>22</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -2650,13 +2698,23 @@
     </row>
     <row r="11" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="B11" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C11" s="6">
+        <v>800</v>
+      </c>
+      <c r="D11" s="6">
+        <v>60</v>
+      </c>
+      <c r="E11" s="6">
+        <v>100</v>
+      </c>
+      <c r="F11" s="6">
+        <v>25</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -2701,7 +2759,7 @@
     </row>
     <row r="12" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="7">
         <v>1100</v>
@@ -2736,7 +2794,7 @@
         <v>23</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2774,7 +2832,7 @@
     </row>
     <row r="13" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" s="7">
         <v>1625</v>
@@ -2809,7 +2867,7 @@
         <v>51</v>
       </c>
       <c r="N13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2847,7 +2905,7 @@
     </row>
     <row r="14" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B14" s="7">
         <v>2700</v>
@@ -2882,7 +2940,7 @@
         <v>61</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2920,7 +2978,7 @@
     </row>
     <row r="15" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -2971,7 +3029,7 @@
     </row>
     <row r="16" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3022,7 +3080,7 @@
     </row>
     <row r="17" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3124,7 +3182,7 @@
     </row>
     <row r="19" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -3174,20 +3232,44 @@
       <c r="AU19" s="1"/>
     </row>
     <row r="20" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
+      <c r="A20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1100</v>
+      </c>
+      <c r="C20" s="7">
+        <v>510</v>
+      </c>
+      <c r="D20" s="7">
+        <v>10</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7">
+        <v>5</v>
+      </c>
+      <c r="G20" s="7">
+        <v>12</v>
+      </c>
+      <c r="H20" s="7">
+        <v>5</v>
+      </c>
+      <c r="I20" s="7">
+        <v>5</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7">
+        <v>0.21</v>
+      </c>
+      <c r="M20" s="7">
+        <v>23</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -3223,20 +3305,44 @@
       <c r="AU20" s="1"/>
     </row>
     <row r="21" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
+      <c r="A21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1625</v>
+      </c>
+      <c r="C21" s="7">
+        <v>585</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>5</v>
+      </c>
+      <c r="G21" s="7">
+        <v>31</v>
+      </c>
+      <c r="H21" s="7">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7">
+        <v>5</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="M21" s="7">
+        <v>51</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -3272,20 +3378,44 @@
       <c r="AU21" s="1"/>
     </row>
     <row r="22" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
+      <c r="A22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="7">
+        <v>2700</v>
+      </c>
+      <c r="C22" s="7">
+        <v>725</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7">
+        <v>10</v>
+      </c>
+      <c r="G22" s="7">
+        <v>39</v>
+      </c>
+      <c r="H22" s="7">
+        <v>10</v>
+      </c>
+      <c r="I22" s="7">
+        <v>5</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="M22" s="7">
+        <v>61</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>

--- a/坦克数据.xlsx
+++ b/坦克数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99600\Documents\Paradox Interactive\Hearts of Iron IV\mod\touhou114bate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EEE927-6C07-4A12-A825-2AEF027A39BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE21D09-6401-4B3B-968B-0071890DF8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="4860" windowWidth="19200" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="坦克" sheetId="1" r:id="rId1"/>
@@ -731,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="L4" s="5">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M4" s="5" t="s">
         <v>14</v>
@@ -1058,7 +1058,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="5">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>33</v>
@@ -1218,7 +1218,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>33</v>
@@ -1538,7 +1538,7 @@
         <v>24</v>
       </c>
       <c r="L20" s="5">
-        <v>24</v>
+        <v>22.5</v>
       </c>
       <c r="M20" s="5" t="s">
         <v>34</v>
@@ -1698,7 +1698,7 @@
         <v>15</v>
       </c>
       <c r="L24" s="5">
-        <v>42</v>
+        <v>38.5</v>
       </c>
       <c r="M24" s="5" t="s">
         <v>35</v>
@@ -1860,7 +1860,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="5">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>36</v>
@@ -2022,7 +2022,7 @@
         <v>36</v>
       </c>
       <c r="L32" s="5">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>35</v>
@@ -2046,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8802DC47-9863-454C-BF17-0292EE4FC708}">
   <dimension ref="A1:AU45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/坦克数据.xlsx
+++ b/坦克数据.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99600\Documents\Paradox Interactive\Hearts of Iron IV\mod\touhou114bate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DE21D09-6401-4B3B-968B-0071890DF8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39992A32-85DE-438D-97E3-3033B184CABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="坦克" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="119">
   <si>
     <t>软攻</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -248,10 +248,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>幻想45支</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>原版36战</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -323,6 +319,246 @@
   </si>
   <si>
     <t>硬攻</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4铝1钢3胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3铝3胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4铝3胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超音速战机(科研)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4铝2胶6铬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3铝1胶1铬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3铝2胶1铬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2铝1胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔力优势机型：近距支援机，轰炸机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵力优势机型:轻战斗机，海轰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4铝2胶1铬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4铝3胶2铬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版36重战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版40重战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版45重战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>空天母舰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖力优势机型：重战，超重战，多功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[15]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[34]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版40轰(-30%夜间惩罚)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版45轰(-40%夜间惩罚)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[81]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6铝4胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5铝4胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3铝4胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想36轰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想40轰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想44轰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想46支</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（注：由于本人不玩重战，所以设计可能不是最优解，可以私信我修改）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8铝3胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5铝3胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想36重战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想40重战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想44重战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想46重战</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铝3胶</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铝1钢3胶</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>铝1钢3胶</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -330,7 +566,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +603,21 @@
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -422,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -438,6 +689,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -731,8 +1003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1883,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
@@ -2022,7 +2294,7 @@
         <v>36</v>
       </c>
       <c r="L32" s="5">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>35</v>
@@ -2046,13 +2318,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8802DC47-9863-454C-BF17-0292EE4FC708}">
   <dimension ref="A1:AU45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="1" max="1" width="30.4140625" customWidth="1"/>
     <col min="2" max="13" width="9.58203125" customWidth="1"/>
     <col min="14" max="14" width="16.5" customWidth="1"/>
     <col min="15" max="25" width="9.58203125" customWidth="1"/>
@@ -2110,46 +2382,24 @@
       <c r="AU1" s="1"/>
     </row>
     <row r="2" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="A2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="D2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -2185,37 +2435,45 @@
       <c r="AU2" s="1"/>
     </row>
     <row r="3" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="7">
-        <v>687.5</v>
-      </c>
-      <c r="C3" s="7">
-        <v>510</v>
-      </c>
-      <c r="D3" s="7">
-        <v>42.5</v>
-      </c>
-      <c r="E3" s="7">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7">
-        <v>9</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="M3" s="7">
-        <v>24</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>65</v>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
@@ -2253,22 +2511,22 @@
     </row>
     <row r="4" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B4" s="7">
-        <v>910</v>
+        <v>687.5</v>
       </c>
       <c r="C4" s="7">
-        <v>585</v>
+        <v>510</v>
       </c>
       <c r="D4" s="7">
-        <v>45</v>
+        <v>42.5</v>
       </c>
       <c r="E4" s="7">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="F4" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
@@ -2279,10 +2537,10 @@
         <v>0.21</v>
       </c>
       <c r="M4" s="7">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
@@ -2320,22 +2578,22 @@
     </row>
     <row r="5" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B5" s="7">
-        <v>1350</v>
+        <v>910</v>
       </c>
       <c r="C5" s="7">
-        <v>725</v>
+        <v>585</v>
       </c>
       <c r="D5" s="7">
+        <v>45</v>
+      </c>
+      <c r="E5" s="7">
         <v>54</v>
       </c>
-      <c r="E5" s="7">
-        <v>78</v>
-      </c>
       <c r="F5" s="7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
@@ -2346,10 +2604,10 @@
         <v>0.21</v>
       </c>
       <c r="M5" s="7">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -2387,22 +2645,22 @@
     </row>
     <row r="6" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B6" s="7">
-        <v>1710</v>
+        <v>1350</v>
       </c>
       <c r="C6" s="7">
         <v>725</v>
       </c>
       <c r="D6" s="7">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E6" s="7">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="F6" s="7">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -2410,13 +2668,13 @@
       <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="M6" s="7">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -2453,32 +2711,38 @@
       <c r="AU6" s="1"/>
     </row>
     <row r="7" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="6">
-        <v>800</v>
-      </c>
-      <c r="C7" s="6">
-        <v>480</v>
-      </c>
-      <c r="D7" s="6">
-        <v>45</v>
-      </c>
-      <c r="E7" s="6">
+      <c r="A7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1710</v>
+      </c>
+      <c r="C7" s="7">
+        <v>725</v>
+      </c>
+      <c r="D7" s="7">
+        <v>66</v>
+      </c>
+      <c r="E7" s="7">
+        <v>96</v>
+      </c>
+      <c r="F7" s="7">
         <v>24</v>
       </c>
-      <c r="F7" s="6">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="M7" s="7">
+        <v>74</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -2514,32 +2778,38 @@
       <c r="AU7" s="1"/>
     </row>
     <row r="8" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="6">
-        <v>1000</v>
-      </c>
-      <c r="C8" s="6">
-        <v>575</v>
-      </c>
-      <c r="D8" s="6">
-        <v>48</v>
-      </c>
-      <c r="E8" s="6">
-        <v>48</v>
-      </c>
-      <c r="F8" s="6">
-        <v>18</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="A8" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="7">
+        <v>2240</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1530</v>
+      </c>
+      <c r="D8" s="7">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="E8" s="7">
+        <v>120</v>
+      </c>
+      <c r="F8" s="7">
+        <v>31</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
+        <v>0.85</v>
+      </c>
+      <c r="M8" s="7">
+        <v>88</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>78</v>
+      </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -2576,22 +2846,22 @@
     </row>
     <row r="9" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B9" s="6">
-        <v>1200</v>
+        <v>750</v>
       </c>
       <c r="C9" s="6">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="D9" s="6">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E9" s="6">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F9" s="6">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -2599,8 +2869,12 @@
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="M9" s="6">
+        <v>18</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -2637,22 +2911,22 @@
     </row>
     <row r="10" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B10" s="6">
-        <v>1500</v>
+        <v>900</v>
       </c>
       <c r="C10" s="6">
-        <v>725</v>
+        <v>525</v>
       </c>
       <c r="D10" s="6">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="F10" s="6">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -2660,8 +2934,12 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
+      <c r="M10" s="6">
+        <v>30</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -2698,22 +2976,22 @@
     </row>
     <row r="11" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="B11" s="6">
-        <v>2000</v>
+        <v>1050</v>
       </c>
       <c r="C11" s="6">
-        <v>800</v>
+        <v>625</v>
       </c>
       <c r="D11" s="6">
+        <v>54</v>
+      </c>
+      <c r="E11" s="6">
         <v>60</v>
       </c>
-      <c r="E11" s="6">
-        <v>100</v>
-      </c>
       <c r="F11" s="6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -2721,8 +2999,12 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
+      <c r="M11" s="6">
+        <v>40</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -2758,43 +3040,35 @@
       <c r="AU11" s="1"/>
     </row>
     <row r="12" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="7">
-        <v>1100</v>
-      </c>
-      <c r="C12" s="7">
-        <v>510</v>
-      </c>
-      <c r="D12" s="7">
-        <v>10</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7">
-        <v>12</v>
-      </c>
-      <c r="H12" s="7">
-        <v>5</v>
-      </c>
-      <c r="I12" s="7">
-        <v>5</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="M12" s="7">
-        <v>23</v>
-      </c>
-      <c r="N12" s="7" t="s">
-        <v>65</v>
+      <c r="A12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="6">
+        <v>1450</v>
+      </c>
+      <c r="C12" s="6">
+        <v>725</v>
+      </c>
+      <c r="D12" s="6">
+        <v>64</v>
+      </c>
+      <c r="E12" s="6">
+        <v>81</v>
+      </c>
+      <c r="F12" s="6">
+        <v>21</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6">
+        <v>55</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2831,43 +3105,35 @@
       <c r="AU12" s="1"/>
     </row>
     <row r="13" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1625</v>
-      </c>
-      <c r="C13" s="7">
-        <v>585</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7">
-        <v>5</v>
-      </c>
-      <c r="G13" s="7">
-        <v>31</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>5</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="M13" s="7">
-        <v>51</v>
-      </c>
-      <c r="N13" s="7" t="s">
-        <v>66</v>
+      <c r="A13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2000</v>
+      </c>
+      <c r="C13" s="6">
+        <v>800</v>
+      </c>
+      <c r="D13" s="6">
+        <v>80</v>
+      </c>
+      <c r="E13" s="6">
+        <v>100</v>
+      </c>
+      <c r="F13" s="6">
+        <v>25</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6">
+        <v>80</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2905,28 +3171,28 @@
     </row>
     <row r="14" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B14" s="7">
-        <v>2700</v>
+        <v>1100</v>
       </c>
       <c r="C14" s="7">
-        <v>725</v>
+        <v>510</v>
       </c>
       <c r="D14" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E14" s="7">
         <v>0</v>
       </c>
       <c r="F14" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G14" s="7">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="H14" s="7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I14" s="7">
         <v>5</v>
@@ -2934,13 +3200,13 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
       <c r="L14" s="7">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="M14" s="7">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
@@ -2977,22 +3243,44 @@
       <c r="AU14" s="1"/>
     </row>
     <row r="15" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
+      <c r="A15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1625</v>
+      </c>
+      <c r="C15" s="7">
+        <v>585</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7">
+        <v>31</v>
+      </c>
+      <c r="H15" s="7">
+        <v>7</v>
+      </c>
+      <c r="I15" s="7">
+        <v>5</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="M15" s="7">
+        <v>51</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
@@ -3028,22 +3316,44 @@
       <c r="AU15" s="1"/>
     </row>
     <row r="16" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
+      <c r="A16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="7">
+        <v>2700</v>
+      </c>
+      <c r="C16" s="7">
+        <v>725</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>10</v>
+      </c>
+      <c r="G16" s="7">
+        <v>39</v>
+      </c>
+      <c r="H16" s="7">
+        <v>10</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="M16" s="7">
+        <v>61</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -3080,21 +3390,41 @@
     </row>
     <row r="17" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="B17" s="6">
+        <v>900</v>
+      </c>
+      <c r="C17" s="6">
+        <v>300</v>
+      </c>
+      <c r="D17" s="6">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>4</v>
+      </c>
+      <c r="G17" s="6">
+        <v>8</v>
+      </c>
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="6">
+        <v>5</v>
+      </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="M17" s="6">
+        <v>15</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
@@ -3131,21 +3461,41 @@
     </row>
     <row r="18" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="B18" s="6">
+        <v>1300</v>
+      </c>
+      <c r="C18" s="6">
+        <v>400</v>
+      </c>
+      <c r="D18" s="6">
+        <v>10</v>
+      </c>
+      <c r="E18" s="6">
+        <v>2</v>
+      </c>
+      <c r="F18" s="6">
+        <v>6</v>
+      </c>
+      <c r="G18" s="6">
+        <v>15</v>
+      </c>
+      <c r="H18" s="6">
+        <v>5</v>
+      </c>
+      <c r="I18" s="6">
+        <v>5</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="M18" s="6">
+        <v>25</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
@@ -3182,21 +3532,41 @@
     </row>
     <row r="19" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1800</v>
+      </c>
+      <c r="C19" s="6">
+        <v>500</v>
+      </c>
+      <c r="D19" s="6">
+        <v>12</v>
+      </c>
+      <c r="E19" s="6">
+        <v>3</v>
+      </c>
+      <c r="F19" s="6">
+        <v>7</v>
+      </c>
+      <c r="G19" s="6">
+        <v>30</v>
+      </c>
+      <c r="H19" s="6">
+        <v>5</v>
+      </c>
+      <c r="I19" s="6">
+        <v>5</v>
+      </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
+      <c r="M19" s="6">
+        <v>50</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -3232,43 +3602,41 @@
       <c r="AU19" s="1"/>
     </row>
     <row r="20" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="7">
-        <v>1100</v>
-      </c>
-      <c r="C20" s="7">
-        <v>510</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="A20" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="6">
+        <v>2700</v>
+      </c>
+      <c r="C20" s="6">
+        <v>600</v>
+      </c>
+      <c r="D20" s="6">
+        <v>12</v>
+      </c>
+      <c r="E20" s="6">
+        <v>4</v>
+      </c>
+      <c r="F20" s="6">
         <v>10</v>
       </c>
-      <c r="E20" s="7">
-        <v>0</v>
-      </c>
-      <c r="F20" s="7">
-        <v>5</v>
-      </c>
-      <c r="G20" s="7">
-        <v>12</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7">
-        <v>0.21</v>
-      </c>
-      <c r="M20" s="7">
-        <v>23</v>
-      </c>
-      <c r="N20" s="7" t="s">
+      <c r="G20" s="6">
+        <v>40</v>
+      </c>
+      <c r="H20" s="6">
+        <v>7</v>
+      </c>
+      <c r="I20" s="6">
+        <v>6</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6">
         <v>65</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
@@ -3305,43 +3673,41 @@
       <c r="AU20" s="1"/>
     </row>
     <row r="21" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="6">
+        <v>3500</v>
+      </c>
+      <c r="C21" s="6">
+        <v>650</v>
+      </c>
+      <c r="D21" s="6">
+        <v>15</v>
+      </c>
+      <c r="E21" s="6">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6">
+        <v>12</v>
+      </c>
+      <c r="G21" s="6">
         <v>50</v>
       </c>
-      <c r="B21" s="7">
-        <v>1625</v>
-      </c>
-      <c r="C21" s="7">
-        <v>585</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7">
-        <v>5</v>
-      </c>
-      <c r="G21" s="7">
-        <v>31</v>
-      </c>
-      <c r="H21" s="7">
-        <v>7</v>
-      </c>
-      <c r="I21" s="7">
-        <v>5</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7">
-        <v>0.37</v>
-      </c>
-      <c r="M21" s="7">
-        <v>51</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>66</v>
+      <c r="H21" s="6">
+        <v>10</v>
+      </c>
+      <c r="I21" s="6">
+        <v>8</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6">
+        <v>75</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
@@ -3379,42 +3745,44 @@
     </row>
     <row r="22" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B22" s="7">
-        <v>2700</v>
+        <v>2250</v>
       </c>
       <c r="C22" s="7">
-        <v>725</v>
+        <v>270</v>
       </c>
       <c r="D22" s="7">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="E22" s="7">
         <v>0</v>
       </c>
       <c r="F22" s="7">
-        <v>10</v>
-      </c>
-      <c r="G22" s="7">
-        <v>39</v>
+        <v>27</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="H22" s="7">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I22" s="7">
-        <v>5</v>
-      </c>
-      <c r="J22" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>15</v>
+      </c>
       <c r="K22" s="7"/>
       <c r="L22" s="7">
-        <v>0.37</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M22" s="7">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
@@ -3451,20 +3819,48 @@
       <c r="AU22" s="1"/>
     </row>
     <row r="23" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
+      <c r="A23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="7">
+        <v>6000</v>
+      </c>
+      <c r="C23" s="7">
+        <v>455</v>
+      </c>
+      <c r="D23" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>0</v>
+      </c>
+      <c r="F23" s="7">
+        <v>44</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>1</v>
+      </c>
+      <c r="J23" s="7">
+        <v>34</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M23" s="7">
+        <v>116</v>
+      </c>
+      <c r="N23" s="7" t="s">
+        <v>99</v>
+      </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
@@ -3500,20 +3896,48 @@
       <c r="AU23" s="1"/>
     </row>
     <row r="24" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
+      <c r="A24" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" s="7">
+        <v>9000</v>
+      </c>
+      <c r="C24" s="7">
+        <v>580</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7">
+        <v>40</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="7">
+        <v>46</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3</v>
+      </c>
+      <c r="J24" s="7">
+        <v>81</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="L24" s="7">
+        <v>0.37</v>
+      </c>
+      <c r="M24" s="7">
+        <v>193.5</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
@@ -3549,20 +3973,46 @@
       <c r="AU24" s="1"/>
     </row>
     <row r="25" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="A25" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B25" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C25" s="13">
+        <v>300</v>
+      </c>
+      <c r="D25" s="13">
+        <v>8</v>
+      </c>
+      <c r="E25" s="13">
+        <v>5</v>
+      </c>
+      <c r="F25" s="13">
+        <v>25</v>
+      </c>
+      <c r="G25" s="13">
+        <v>15</v>
+      </c>
+      <c r="H25" s="13">
+        <v>5</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1</v>
+      </c>
+      <c r="J25" s="13">
+        <v>15</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13">
+        <v>25</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -3598,20 +4048,46 @@
       <c r="AU25" s="1"/>
     </row>
     <row r="26" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
+      <c r="A26" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="13">
+        <v>5000</v>
+      </c>
+      <c r="C26" s="13">
+        <v>500</v>
+      </c>
+      <c r="D26" s="13">
+        <v>10</v>
+      </c>
+      <c r="E26" s="13">
+        <v>5</v>
+      </c>
+      <c r="F26" s="13">
+        <v>40</v>
+      </c>
+      <c r="G26" s="13">
+        <v>35</v>
+      </c>
+      <c r="H26" s="13">
+        <v>15</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13">
+        <v>35</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13">
+        <v>50</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -3647,20 +4123,46 @@
       <c r="AU26" s="1"/>
     </row>
     <row r="27" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
+      <c r="A27" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="13">
+        <v>7500</v>
+      </c>
+      <c r="C27" s="13">
+        <v>600</v>
+      </c>
+      <c r="D27" s="13">
+        <v>12</v>
+      </c>
+      <c r="E27" s="13">
+        <v>5</v>
+      </c>
+      <c r="F27" s="13">
+        <v>42</v>
+      </c>
+      <c r="G27" s="13">
+        <v>80</v>
+      </c>
+      <c r="H27" s="13">
+        <v>25</v>
+      </c>
+      <c r="I27" s="13">
+        <v>3</v>
+      </c>
+      <c r="J27" s="13">
+        <v>80</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13">
+        <v>65</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>84</v>
+      </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -3696,20 +4198,46 @@
       <c r="AU27" s="1"/>
     </row>
     <row r="28" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
+      <c r="A28" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="13">
+        <v>9000</v>
+      </c>
+      <c r="C28" s="13">
+        <v>650</v>
+      </c>
+      <c r="D28" s="13">
+        <v>12</v>
+      </c>
+      <c r="E28" s="13">
+        <v>5</v>
+      </c>
+      <c r="F28" s="13">
+        <v>45</v>
+      </c>
+      <c r="G28" s="13">
+        <v>100</v>
+      </c>
+      <c r="H28" s="13">
+        <v>40</v>
+      </c>
+      <c r="I28" s="13">
+        <v>5</v>
+      </c>
+      <c r="J28" s="13">
+        <v>100</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13">
+        <v>75</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>85</v>
+      </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
@@ -3745,22 +4273,41 @@
       <c r="AU28" s="1"/>
     </row>
     <row r="29" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
+      <c r="A29" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="14">
+        <v>900</v>
+      </c>
+      <c r="C29" s="14">
+        <v>390</v>
+      </c>
+      <c r="D29" s="14">
+        <v>36.6</v>
+      </c>
+      <c r="E29" s="14">
+        <v>54</v>
+      </c>
+      <c r="F29" s="14">
+        <v>26</v>
+      </c>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="M29" s="14">
+        <v>23</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>109</v>
+      </c>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
@@ -3794,20 +4341,38 @@
       <c r="AU29" s="1"/>
     </row>
     <row r="30" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
+      <c r="A30" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="14">
+        <v>1100</v>
+      </c>
+      <c r="C30" s="14">
+        <v>487.5</v>
+      </c>
+      <c r="D30" s="14">
+        <v>45</v>
+      </c>
+      <c r="E30" s="14">
+        <v>72</v>
+      </c>
+      <c r="F30" s="14">
+        <v>28</v>
+      </c>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="M30" s="14">
+        <v>55.5</v>
+      </c>
+      <c r="N30" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
@@ -3843,20 +4408,38 @@
       <c r="AU30" s="1"/>
     </row>
     <row r="31" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
+      <c r="A31" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="14">
+        <v>2100</v>
+      </c>
+      <c r="C31" s="14">
+        <v>725</v>
+      </c>
+      <c r="D31" s="14">
+        <v>49.2</v>
+      </c>
+      <c r="E31" s="14">
+        <v>120</v>
+      </c>
+      <c r="F31" s="14">
+        <v>32</v>
+      </c>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14">
+        <v>0.48</v>
+      </c>
+      <c r="M31" s="14">
+        <v>104.5</v>
+      </c>
+      <c r="N31" s="14" t="s">
+        <v>111</v>
+      </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -3892,20 +4475,38 @@
       <c r="AU31" s="1"/>
     </row>
     <row r="32" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
+      <c r="A32" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="14">
+        <v>3600</v>
+      </c>
+      <c r="C32" s="14">
+        <v>650</v>
+      </c>
+      <c r="D32" s="14">
+        <v>44</v>
+      </c>
+      <c r="E32" s="14">
+        <v>190</v>
+      </c>
+      <c r="F32" s="14">
+        <v>60</v>
+      </c>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14">
+        <v>1.32</v>
+      </c>
+      <c r="M32" s="14">
+        <v>200</v>
+      </c>
+      <c r="N32" s="14" t="s">
+        <v>110</v>
+      </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
@@ -3941,20 +4542,36 @@
       <c r="AU32" s="1"/>
     </row>
     <row r="33" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
+      <c r="A33" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B33" s="13">
+        <v>1350</v>
+      </c>
+      <c r="C33" s="13">
+        <v>400</v>
+      </c>
+      <c r="D33" s="13">
+        <v>36</v>
+      </c>
+      <c r="E33" s="13">
+        <v>40</v>
+      </c>
+      <c r="F33" s="13">
+        <v>25</v>
+      </c>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13">
+        <v>25</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>75</v>
+      </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
@@ -3990,20 +4607,36 @@
       <c r="AU33" s="1"/>
     </row>
     <row r="34" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
+      <c r="A34" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1800</v>
+      </c>
+      <c r="C34" s="13">
+        <v>480</v>
+      </c>
+      <c r="D34" s="13">
+        <v>40</v>
+      </c>
+      <c r="E34" s="13">
+        <v>60</v>
+      </c>
+      <c r="F34" s="13">
+        <v>30</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13">
+        <v>50</v>
+      </c>
+      <c r="N34" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
@@ -4039,20 +4672,36 @@
       <c r="AU34" s="1"/>
     </row>
     <row r="35" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
+      <c r="A35" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="13">
+        <v>2400</v>
+      </c>
+      <c r="C35" s="13">
+        <v>600</v>
+      </c>
+      <c r="D35" s="13">
+        <v>44</v>
+      </c>
+      <c r="E35" s="13">
+        <v>90</v>
+      </c>
+      <c r="F35" s="13">
+        <v>35</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13">
+        <v>90</v>
+      </c>
+      <c r="N35" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -4088,20 +4737,36 @@
       <c r="AU35" s="1"/>
     </row>
     <row r="36" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
+      <c r="A36" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="13">
+        <v>2800</v>
+      </c>
+      <c r="C36" s="13">
+        <v>720</v>
+      </c>
+      <c r="D36" s="13">
+        <v>48</v>
+      </c>
+      <c r="E36" s="13">
+        <v>120</v>
+      </c>
+      <c r="F36" s="13">
+        <v>38</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13">
+        <v>120</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>

--- a/坦克数据.xlsx
+++ b/坦克数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\99600\Documents\Paradox Interactive\Hearts of Iron IV\mod\touhou114bate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39992A32-85DE-438D-97E3-3033B184CABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3898F3F7-131F-4F35-9A4B-4BD1F44D4F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11520" yWindow="4590" windowWidth="15790" windowHeight="9680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="坦克" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="134">
   <si>
     <t>软攻</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -561,12 +561,93 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>幻想46轰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想36海轰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想40海轰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想44海轰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4铝2胶</t>
+  </si>
+  <si>
+    <t>原版36海轰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版40海轰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>原版4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>海轰</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原版45海轰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3铝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4铝1钢2胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻想46海轰(未实装)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,6 +700,20 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -673,7 +768,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -712,6 +807,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="4" applyAlignment="1">
@@ -2316,10 +2414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8802DC47-9863-454C-BF17-0292EE4FC708}">
-  <dimension ref="A1:AU45"/>
+  <dimension ref="A1:AU49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4199,7 +4297,7 @@
     </row>
     <row r="28" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B28" s="13">
         <v>9000</v>
@@ -4407,7 +4505,7 @@
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
     </row>
-    <row r="31" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>88</v>
       </c>
@@ -4474,7 +4572,7 @@
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
     </row>
-    <row r="32" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>89</v>
       </c>
@@ -4541,7 +4639,7 @@
       <c r="AT32" s="1"/>
       <c r="AU32" s="1"/>
     </row>
-    <row r="33" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>112</v>
       </c>
@@ -4567,7 +4665,7 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="N33" s="13" t="s">
         <v>75</v>
@@ -4606,7 +4704,7 @@
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
     </row>
-    <row r="34" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
         <v>113</v>
       </c>
@@ -4671,7 +4769,7 @@
       <c r="AT34" s="1"/>
       <c r="AU34" s="1"/>
     </row>
-    <row r="35" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>114</v>
       </c>
@@ -4736,7 +4834,7 @@
       <c r="AT35" s="1"/>
       <c r="AU35" s="1"/>
     </row>
-    <row r="36" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>115</v>
       </c>
@@ -4801,21 +4899,43 @@
       <c r="AT36" s="1"/>
       <c r="AU36" s="1"/>
     </row>
-    <row r="37" spans="1:47" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
+    <row r="37" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" s="15">
+        <v>1100</v>
+      </c>
+      <c r="C37" s="15">
+        <v>510</v>
+      </c>
+      <c r="D37" s="15">
+        <v>28.5</v>
+      </c>
+      <c r="E37" s="15">
+        <v>10</v>
+      </c>
+      <c r="F37" s="15">
+        <v>5</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15">
+        <v>15</v>
+      </c>
+      <c r="I37" s="15">
+        <v>5</v>
+      </c>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="M37" s="15">
+        <v>27</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>128</v>
+      </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -4850,21 +4970,45 @@
       <c r="AT37" s="1"/>
       <c r="AU37" s="1"/>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
+    <row r="38" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="15">
+        <v>1300</v>
+      </c>
+      <c r="C38" s="15">
+        <v>585</v>
+      </c>
+      <c r="D38" s="15">
+        <v>33.5</v>
+      </c>
+      <c r="E38" s="15">
+        <v>18</v>
+      </c>
+      <c r="F38" s="15">
+        <v>7</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15">
+        <v>18</v>
+      </c>
+      <c r="I38" s="15">
+        <v>9</v>
+      </c>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="L38" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="M38" s="15">
+        <v>34</v>
+      </c>
+      <c r="N38" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
@@ -4899,21 +5043,45 @@
       <c r="AT38" s="1"/>
       <c r="AU38" s="1"/>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
+    <row r="39" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="15">
+        <v>1875</v>
+      </c>
+      <c r="C39" s="15">
+        <v>688.7</v>
+      </c>
+      <c r="D39" s="15">
+        <v>38.5</v>
+      </c>
+      <c r="E39" s="15">
+        <v>18</v>
+      </c>
+      <c r="F39" s="15">
+        <v>6</v>
+      </c>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15">
+        <v>23</v>
+      </c>
+      <c r="I39" s="15">
+        <v>11</v>
+      </c>
+      <c r="J39" s="15"/>
+      <c r="K39" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="M39" s="15">
+        <v>38.5</v>
+      </c>
+      <c r="N39" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
@@ -4948,21 +5116,45 @@
       <c r="AT39" s="1"/>
       <c r="AU39" s="1"/>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
+    <row r="40" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="15">
+        <v>2250</v>
+      </c>
+      <c r="C40" s="15">
+        <v>725</v>
+      </c>
+      <c r="D40" s="15">
+        <v>35.5</v>
+      </c>
+      <c r="E40" s="15">
+        <v>36</v>
+      </c>
+      <c r="F40" s="15">
+        <v>12</v>
+      </c>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15">
+        <v>26</v>
+      </c>
+      <c r="I40" s="15">
+        <v>11</v>
+      </c>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="L40" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="M40" s="15">
+        <v>73.5</v>
+      </c>
+      <c r="N40" s="15" t="s">
+        <v>123</v>
+      </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
@@ -4997,21 +5189,43 @@
       <c r="AT40" s="1"/>
       <c r="AU40" s="1"/>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
+    <row r="41" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="13">
+        <v>1200</v>
+      </c>
+      <c r="C41" s="13">
+        <v>510</v>
+      </c>
+      <c r="D41" s="13">
+        <v>30</v>
+      </c>
+      <c r="E41" s="13">
+        <v>12</v>
+      </c>
+      <c r="F41" s="13">
+        <v>8</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13">
+        <v>16</v>
+      </c>
+      <c r="I41" s="13">
+        <v>5</v>
+      </c>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13">
+        <v>30</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>66</v>
+      </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -5046,21 +5260,43 @@
       <c r="AT41" s="1"/>
       <c r="AU41" s="1"/>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
+    <row r="42" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B42" s="13">
+        <v>1500</v>
+      </c>
+      <c r="C42" s="13">
+        <v>600</v>
+      </c>
+      <c r="D42" s="13">
+        <v>35</v>
+      </c>
+      <c r="E42" s="13">
+        <v>18</v>
+      </c>
+      <c r="F42" s="13">
+        <v>10</v>
+      </c>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13">
+        <v>20</v>
+      </c>
+      <c r="I42" s="13">
+        <v>9</v>
+      </c>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13">
+        <v>40</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
@@ -5095,21 +5331,43 @@
       <c r="AT42" s="1"/>
       <c r="AU42" s="1"/>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+    <row r="43" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="13">
+        <v>2000</v>
+      </c>
+      <c r="C43" s="13">
+        <v>700</v>
+      </c>
+      <c r="D43" s="13">
+        <v>40</v>
+      </c>
+      <c r="E43" s="13">
+        <v>30</v>
+      </c>
+      <c r="F43" s="13">
+        <v>12</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13">
+        <v>25</v>
+      </c>
+      <c r="I43" s="13">
+        <v>12</v>
+      </c>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13">
+        <v>54</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -5144,21 +5402,43 @@
       <c r="AT43" s="1"/>
       <c r="AU43" s="1"/>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
+    <row r="44" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="13">
+        <v>2500</v>
+      </c>
+      <c r="C44" s="13">
+        <v>750</v>
+      </c>
+      <c r="D44" s="13">
+        <v>45</v>
+      </c>
+      <c r="E44" s="13">
+        <v>42</v>
+      </c>
+      <c r="F44" s="13">
+        <v>15</v>
+      </c>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13">
+        <v>32</v>
+      </c>
+      <c r="I44" s="13">
+        <v>15</v>
+      </c>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13">
+        <v>80</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>129</v>
+      </c>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
@@ -5193,7 +5473,7 @@
       <c r="AT44" s="1"/>
       <c r="AU44" s="1"/>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -5242,6 +5522,10 @@
       <c r="AT45" s="1"/>
       <c r="AU45" s="1"/>
     </row>
+    <row r="46" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="1:47" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="20" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
